--- a/조의금_자동화_자료.xlsx
+++ b/조의금_자동화_자료.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="301">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="302">
   <si>
     <t>이름</t>
   </si>
@@ -1216,6 +1216,10 @@
   </si>
   <si>
     <t>박순덕</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>금액</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1584,7 +1588,7 @@
   <dimension ref="A1:B307"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B308" sqref="B308"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -1594,7 +1598,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>301</v>
       </c>
     </row>
     <row r="2" spans="1:2">

--- a/조의금_자동화_자료.xlsx
+++ b/조의금_자동화_자료.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="310" uniqueCount="302">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="311">
   <si>
     <t>이름</t>
   </si>
@@ -1220,6 +1220,42 @@
   </si>
   <si>
     <t>금액</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>김장식</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이학진</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조현준</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>이상조</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>안승호</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>양덕우</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>박진욱</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조합골프 총무</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>채일교</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -1585,10 +1621,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B307"/>
+  <dimension ref="A1:B316"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+    <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
+      <selection activeCell="A316" sqref="A316"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999"/>
@@ -4047,6 +4083,78 @@
       </c>
       <c r="B307">
         <v>5</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2">
+      <c r="A308" t="s">
+        <v>302</v>
+      </c>
+      <c r="B308">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2">
+      <c r="A309" t="s">
+        <v>303</v>
+      </c>
+      <c r="B309">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2">
+      <c r="A310" t="s">
+        <v>304</v>
+      </c>
+      <c r="B310">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2">
+      <c r="A311" t="s">
+        <v>305</v>
+      </c>
+      <c r="B311">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2">
+      <c r="A312" t="s">
+        <v>306</v>
+      </c>
+      <c r="B312">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2">
+      <c r="A313" t="s">
+        <v>307</v>
+      </c>
+      <c r="B313">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2">
+      <c r="A314" t="s">
+        <v>308</v>
+      </c>
+      <c r="B314">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2">
+      <c r="A315" t="s">
+        <v>309</v>
+      </c>
+      <c r="B315">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2">
+      <c r="A316" t="s">
+        <v>310</v>
+      </c>
+      <c r="B316">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/조의금_자동화_자료.xlsx
+++ b/조의금_자동화_자료.xlsx
@@ -1623,7 +1623,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:B316"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A295" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A304" workbookViewId="0">
       <selection activeCell="A316" sqref="A316"/>
     </sheetView>
   </sheetViews>
